--- a/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_highfee.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_highfee.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9624"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102020224"/>
-        <c:axId val="102021760"/>
+        <c:axId val="97631616"/>
+        <c:axId val="97637504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102020224"/>
+        <c:axId val="97631616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102021760"/>
+        <c:crossAx val="97637504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102021760"/>
+        <c:axId val="97637504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +653,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102020224"/>
+        <c:crossAx val="97631616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,15 +997,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>150.48571428571429</v>
       </c>
@@ -1015,8 +1015,20 @@
       <c r="C1">
         <v>147.78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <f>A1*50</f>
+        <v>7524.2857142857147</v>
+      </c>
+      <c r="F1">
+        <f>B1*50</f>
+        <v>7389</v>
+      </c>
+      <c r="G1">
+        <f>C1*50</f>
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>150.97857142857143</v>
       </c>
@@ -1026,8 +1038,20 @@
       <c r="C2">
         <v>145.70000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f t="shared" ref="E2:E50" si="0">A2*50</f>
+        <v>7548.9285714285716</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F50" si="1">B2*50</f>
+        <v>7246.0000000000009</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G50" si="2">C2*50</f>
+        <v>7285.0000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>151.5</v>
       </c>
@@ -1037,8 +1061,20 @@
       <c r="C3">
         <v>144.00399999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>7575</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>7129.4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>7200.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152.00714285714287</v>
       </c>
@@ -1048,8 +1084,20 @@
       <c r="C4">
         <v>142.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7600.3571428571431</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7026.0000000000009</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152.54999999999998</v>
       </c>
@@ -1059,8 +1107,20 @@
       <c r="C5">
         <v>140.804</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7627.4999999999991</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>6909.4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>7040.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>153.05714285714285</v>
       </c>
@@ -1070,8 +1130,20 @@
       <c r="C6">
         <v>139.108</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7652.8571428571422</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6792.7999999999993</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6955.4000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>153.6</v>
       </c>
@@ -1081,8 +1153,20 @@
       <c r="C7">
         <v>137.60400000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7680</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6689.4000000000005</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>6880.2000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>154.11428571428573</v>
       </c>
@@ -1092,8 +1176,20 @@
       <c r="C8">
         <v>135.90799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7705.7142857142862</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6572.7999999999993</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>6795.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>154.64285714285714</v>
       </c>
@@ -1103,8 +1199,20 @@
       <c r="C9">
         <v>134.21199999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7732.1428571428569</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6456.2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6710.5999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>155.17857142857142</v>
       </c>
@@ -1114,8 +1222,20 @@
       <c r="C10">
         <v>132.00399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7758.9285714285706</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6304.4000000000005</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>6600.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>155.69285714285715</v>
       </c>
@@ -1125,8 +1245,20 @@
       <c r="C11">
         <v>130.292</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7784.6428571428578</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6186.7000000000007</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>6514.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>156.22857142857143</v>
       </c>
@@ -1136,8 +1268,20 @@
       <c r="C12">
         <v>128.16400000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7811.4285714285716</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6040.4000000000005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>6408.2000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>156.73571428571429</v>
       </c>
@@ -1147,8 +1291,20 @@
       <c r="C13">
         <v>126.86799999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7836.7857142857147</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5951.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6343.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>157.23571428571429</v>
       </c>
@@ -1158,8 +1314,20 @@
       <c r="C14">
         <v>125.364</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7861.7857142857147</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5847.9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>6268.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>157.75</v>
       </c>
@@ -1169,8 +1337,20 @@
       <c r="C15">
         <v>123.86</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7887.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5744.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>158.28571428571428</v>
       </c>
@@ -1180,8 +1360,20 @@
       <c r="C16">
         <v>122.148</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7914.2857142857138</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5626.8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>6107.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>158.79285714285714</v>
       </c>
@@ -1191,8 +1383,20 @@
       <c r="C17">
         <v>120.22800000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7939.6428571428569</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5494.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>6011.4000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>159.31428571428572</v>
       </c>
@@ -1202,8 +1406,20 @@
       <c r="C18">
         <v>118.10000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7965.7142857142862</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5348.5000000000009</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>159.90714285714287</v>
       </c>
@@ -1213,8 +1429,20 @@
       <c r="C19">
         <v>115.97199999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7995.357142857144</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5202.2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>5798.5999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>160.52857142857141</v>
       </c>
@@ -1224,8 +1452,20 @@
       <c r="C20">
         <v>113.74799999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>8026.4285714285706</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5049.2999999999993</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>5687.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>161.14285714285714</v>
       </c>
@@ -1235,8 +1475,20 @@
       <c r="C21">
         <v>111.76400000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8057.1428571428569</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4912.9000000000005</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5588.2000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>161.76428571428571</v>
       </c>
@@ -1246,8 +1498,20 @@
       <c r="C22">
         <v>110.452</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8088.2142857142853</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4822.7000000000007</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5522.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>162.37857142857143</v>
       </c>
@@ -1257,8 +1521,20 @@
       <c r="C23">
         <v>108.244</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8118.9285714285716</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4670.9000000000005</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5412.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>162.97857142857143</v>
       </c>
@@ -1268,8 +1544,20 @@
       <c r="C24">
         <v>106.036</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>8148.9285714285716</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4519.0999999999995</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>5301.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>163.58571428571429</v>
       </c>
@@ -1279,8 +1567,20 @@
       <c r="C25">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>8179.2857142857147</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4413.5000000000009</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>164.2</v>
       </c>
@@ -1290,8 +1590,20 @@
       <c r="C26">
         <v>102.74000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>8210</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4292.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>164.82857142857142</v>
       </c>
@@ -1301,8 +1613,20 @@
       <c r="C27">
         <v>100.98</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>8241.4285714285706</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4171.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>165.42857142857142</v>
       </c>
@@ -1312,8 +1636,20 @@
       <c r="C28">
         <v>99.444000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>8271.4285714285706</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4065.9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>4972.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>166.03571428571428</v>
       </c>
@@ -1323,8 +1659,20 @@
       <c r="C29">
         <v>97.76400000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>8301.7857142857138</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>3950.4000000000005</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>4888.2000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>166.64285714285714</v>
       </c>
@@ -1334,8 +1682,20 @@
       <c r="C30">
         <v>96.403999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>8332.1428571428569</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>3856.9</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>4820.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>167.25714285714287</v>
       </c>
@@ -1345,8 +1705,20 @@
       <c r="C31">
         <v>95.268000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8362.8571428571431</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>3778.7999999999997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>4763.3999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>167.89285714285714</v>
       </c>
@@ -1356,8 +1728,20 @@
       <c r="C32">
         <v>94.388000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>8394.6428571428569</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>3718.3000000000006</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>4719.4000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>168.50714285714287</v>
       </c>
@@ -1367,8 +1751,20 @@
       <c r="C33">
         <v>93.396000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>8425.3571428571431</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>3650.1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>4669.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>169.12142857142857</v>
       </c>
@@ -1378,8 +1774,20 @@
       <c r="C34">
         <v>92.516000000000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>8456.0714285714275</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>3589.6</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>4625.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>169.72857142857143</v>
       </c>
@@ -1389,8 +1797,20 @@
       <c r="C35">
         <v>91.171999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>8486.4285714285706</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3497.1999999999994</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>4558.5999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>170.42142857142858</v>
       </c>
@@ -1400,8 +1820,20 @@
       <c r="C36">
         <v>90.132000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>8521.0714285714294</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>3425.7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>4506.6000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>171.14285714285714</v>
       </c>
@@ -1411,8 +1843,20 @@
       <c r="C37">
         <v>89.091999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>8557.1428571428569</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3354.2000000000003</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>4454.6000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>171.85714285714286</v>
       </c>
@@ -1422,8 +1866,20 @@
       <c r="C38">
         <v>87.811999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>8592.8571428571431</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3266.2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>4390.5999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>172.57142857142856</v>
       </c>
@@ -1433,8 +1889,20 @@
       <c r="C39">
         <v>86.307999999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>8628.5714285714275</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3162.8</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>4315.3999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>173.3</v>
       </c>
@@ -1444,8 +1912,20 @@
       <c r="C40">
         <v>84.644000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>8665</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>3048.3999999999996</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>4232.2000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>174.01428571428573</v>
       </c>
@@ -1455,8 +1935,20 @@
       <c r="C41">
         <v>83.811999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8700.7142857142862</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>2991.1999999999994</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>4190.5999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>174.72857142857143</v>
       </c>
@@ -1466,8 +1958,20 @@
       <c r="C42">
         <v>82.228000000000009</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>8736.4285714285706</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2882.3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>4111.4000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>175.42857142857142</v>
       </c>
@@ -1477,8 +1981,20 @@
       <c r="C43">
         <v>80.963999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>8771.4285714285706</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2795.4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>4048.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>176.15</v>
       </c>
@@ -1488,8 +2004,20 @@
       <c r="C44">
         <v>79.283999999999992</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>8807.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2679.9</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>3964.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>176.87142857142857</v>
       </c>
@@ -1499,8 +2027,20 @@
       <c r="C45">
         <v>78.292000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>8843.5714285714275</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2611.7000000000003</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>3914.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>177.59285714285716</v>
       </c>
@@ -1510,8 +2050,20 @@
       <c r="C46">
         <v>76.307999999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>8879.6428571428587</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2475.3000000000002</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>3815.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>178.30714285714285</v>
       </c>
@@ -1521,8 +2073,20 @@
       <c r="C47">
         <v>74.244</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>8915.3571428571431</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2333.4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>3712.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>179.03571428571428</v>
       </c>
@@ -1532,8 +2096,20 @@
       <c r="C48">
         <v>72.531999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>8951.7857142857138</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2215.6999999999998</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>3626.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>179.75714285714287</v>
       </c>
@@ -1543,8 +2119,20 @@
       <c r="C49">
         <v>71.236000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>8987.8571428571431</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2126.6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>3561.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>180.48571428571429</v>
       </c>
@@ -1553,6 +2141,18 @@
       </c>
       <c r="C50">
         <v>69.795999999999992</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>9024.2857142857156</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>2027.5999999999997</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>3489.7999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +2167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1579,7 +2179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
